--- a/output/fit_clients/fit_round_14.xlsx
+++ b/output/fit_clients/fit_round_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>7541008429.030829</v>
+        <v>6499755152.316525</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1649925552675593</v>
+        <v>0.1922301687863879</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2404156323561236</v>
+        <v>0.3888166728766072</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9801383028242077</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.697607438834464</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7300911358260395</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.904215277686325</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>4078321910.738008</v>
+        <v>7110474681.898499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3564606918772945</v>
+        <v>0.2213991977227143</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9285958049394462</v>
+        <v>0.4819781835997567</v>
       </c>
       <c r="I3" t="n">
-        <v>5.014815808066342</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.939106451579532</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7922299061645025</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7.905491671710518</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>10496481632.99534</v>
+        <v>8602335998.185291</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1414944723316946</v>
+        <v>0.1522487612988248</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.155958160441925</v>
+        <v>0.261122044080085</v>
       </c>
       <c r="I4" t="n">
-        <v>5.123244257970479</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.57347690535889</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7425548117315239</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.277619329271588</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4267824990.436414</v>
+        <v>14541844255.44258</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3400191111987492</v>
+        <v>0.07403251410817938</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8695010123057947</v>
+        <v>0.01131106246385839</v>
       </c>
       <c r="I5" t="n">
-        <v>5.005780103907663</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.280910853687393</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6354706083371249</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.428501313055104</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>6180560437.000251</v>
+        <v>9216983491.594215</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1979197748276869</v>
+        <v>0.1460745222368979</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.358763572858436</v>
+        <v>0.2414024490318369</v>
       </c>
       <c r="I6" t="n">
-        <v>4.21967384210267</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.649585540666948</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7499086013442173</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.3485864862174</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>6926056380.13523</v>
+        <v>9976398874.22275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1698089136804048</v>
+        <v>0.1606859048250407</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.257726723498829</v>
+        <v>0.2880690171454594</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6964585444500416</v>
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.968770246038688</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4458155881800783</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.709854148160449</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9707613648219539</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.70537314827863</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>7823381171.518102</v>
+        <v>4209476611.532624</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1955323058486695</v>
+        <v>0.2862397184245911</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3501824645700818</v>
+        <v>0.6890690976596215</v>
       </c>
       <c r="I8" t="n">
-        <v>5.276851228668007</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.553810529206703</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7205493370873403</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.857176212540103</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>10695028286.08332</v>
+        <v>8022900024.994933</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1087429718641643</v>
+        <v>0.1661829894235585</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03824179445436492</v>
+        <v>0.3056258822330419</v>
       </c>
       <c r="I9" t="n">
-        <v>4.011852646453073</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.859025750520847</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7473016070166774</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.087006389812699</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>9637151999.52478</v>
+        <v>6987589846.638648</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1503060935504004</v>
+        <v>0.1956785687210512</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1876291377564843</v>
+        <v>0.3998303459128992</v>
       </c>
       <c r="I10" t="n">
-        <v>4.996744399748986</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.532764691950671</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7540363289339278</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.547961886727885</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>9006124836.313082</v>
+        <v>5535328895.423189</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1195374602913815</v>
+        <v>0.2739903696154355</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07703964897118437</v>
+        <v>0.6499465117508887</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7838533847267563</v>
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9579231418764783</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2165085472735689</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.514578033369252</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9234082167609563</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.95358630184987</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5456401491.186966</v>
+        <v>11975381764.34295</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2323481441106729</v>
+        <v>0.1063033784685233</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4825069880002482</v>
+        <v>0.1143793710700244</v>
       </c>
       <c r="I12" t="n">
-        <v>4.373280812800197</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.605238527834629</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7350270507498025</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.095302487161419</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7272055116.858565</v>
+        <v>12033870416.85051</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1703743233639324</v>
+        <v>0.1190644639145942</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2597589349178151</v>
+        <v>0.155136367170865</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9488102242000785</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.616550100734082</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7666069876590984</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.715589652447886</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>6197072473.058739</v>
+        <v>12704706598.84476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2235986937419291</v>
+        <v>0.1267974854410633</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4510594669067295</v>
+        <v>0.1798344800025647</v>
       </c>
       <c r="I14" t="n">
-        <v>4.779887499940711</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3751925705073544</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.188939536537842</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3914914148013445</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.640888759489047</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>4293282577.564345</v>
+        <v>8351387468.180196</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3422737179423351</v>
+        <v>0.1176177316335247</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8776045834032196</v>
+        <v>0.1505157208953037</v>
       </c>
       <c r="I15" t="n">
-        <v>5.069030033018411</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.369882669894555</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6064440180155887</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.758997690417218</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7848881758.686517</v>
+        <v>5367497469.264194</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1992354934216377</v>
+        <v>0.2483968586170143</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3634925657085711</v>
+        <v>0.5682046699320452</v>
       </c>
       <c r="I16" t="n">
-        <v>5.394315382730822</v>
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5040295590228685</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.802099045118551</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6483336744580536</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.16457444404252</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>9474985802.079943</v>
+        <v>10396197683.07515</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1224687608233958</v>
+        <v>0.138072184057913</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08757541195365354</v>
+        <v>0.2158441791388226</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7468595230781048</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.854511442780579</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7670998947191183</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.487486451601788</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>9771680900.164549</v>
+        <v>8428325699.853262</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1249156365696966</v>
+        <v>0.1302185569334498</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0963700417191868</v>
+        <v>0.190760870086319</v>
       </c>
       <c r="I18" t="n">
-        <v>4.210638137943992</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.605272714128986</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6962363440585649</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.319454167042314</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7391594761.344335</v>
+        <v>7925695783.518774</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1778958157820936</v>
+        <v>0.1652466907351488</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2867928949388748</v>
+        <v>0.3026354844213508</v>
       </c>
       <c r="I19" t="n">
-        <v>4.535923487656403</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.945712359298851</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7425548117315239</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.905383875331627</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>6148376813.987211</v>
+        <v>6202031854.050749</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2492272670266412</v>
+        <v>0.2386242742422216</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5431744072745187</v>
+        <v>0.5369924987619825</v>
       </c>
       <c r="I20" t="n">
-        <v>5.285886932826685</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.190367089936437</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7753685526615675</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.317003963294912</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>6108418462.819263</v>
+        <v>9915584275.989084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2315608546810607</v>
+        <v>0.09959171366142167</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4796772901448401</v>
+        <v>0.09294331866451273</v>
       </c>
       <c r="I21" t="n">
-        <v>4.879280245686171</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.939282070292705</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.5841083800013869</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-14.62144967032044</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>5288563416.213127</v>
+        <v>4124456713.917149</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2714207256358922</v>
+        <v>0.3835927177175804</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6229427616669051</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.951565878955595</v>
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.971072592786543</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2579533405061181</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.071700306536606</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8300343961578474</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13.52898761662034</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5710283960.243659</v>
+        <v>6181037904.434503</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2192655266738388</v>
+        <v>0.2279927484329073</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4354850757127061</v>
+        <v>0.5030369972658599</v>
       </c>
       <c r="I23" t="n">
-        <v>4.319066587848129</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.916380074547273</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7621371685811521</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.32636329707577</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5823485393.45646</v>
+        <v>5585646980.181442</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.23614376221244</v>
+        <v>0.2668326364498577</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4961493055502359</v>
+        <v>0.6270857838015954</v>
       </c>
       <c r="I24" t="n">
-        <v>4.743744683305999</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.740309365713287</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.777284498595138</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.805380606189473</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>7564840401.990086</v>
+        <v>12633167214.72257</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1748605231185066</v>
+        <v>0.1022197559844741</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2758833605063868</v>
+        <v>0.1013368923276741</v>
       </c>
       <c r="I25" t="n">
-        <v>0.894355348212706</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.777306349983071</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.738813302063576</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.998959691288448</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>9884281471.597572</v>
+        <v>4511176762.204289</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1107723432549147</v>
+        <v>0.3431609027094682</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0455358182990158</v>
+        <v>0.8708668370257712</v>
       </c>
       <c r="I26" t="n">
-        <v>3.776924338327443</v>
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9715272390411452</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3709772694668838</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.410171349096121</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8522992710932668</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.63581407276921</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>8356429587.208246</v>
+        <v>10917992760.72365</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.175223041697307</v>
+        <v>0.1408300924627182</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2771863349988581</v>
+        <v>0.2246525256212711</v>
       </c>
       <c r="I27" t="n">
-        <v>5.050958624701054</v>
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.965655868535533</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3478978170176388</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.387091896646876</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8466056520267133</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.54502114388739</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9525298643.286032</v>
+        <v>5403748959.821237</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.120996899221881</v>
+        <v>0.2801772308923258</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0822852055052886</v>
+        <v>0.6697064202637103</v>
       </c>
       <c r="I28" t="n">
-        <v>3.975709829818361</v>
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9750315146155482</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.346302715324656</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.068540077514244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9027757090116414</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.98697410271858</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>4806212266.476284</v>
+        <v>8863854222.887615</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2839454677270306</v>
+        <v>0.1826274416630289</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6679595426648299</v>
+        <v>0.3581470003336118</v>
       </c>
       <c r="I29" t="n">
-        <v>4.707601866671287</v>
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9711762217628778</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3040002173853221</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.343194297014559</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8718152232276093</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.09311016753763</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>7444617050.365244</v>
+        <v>11978061292.44894</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2068879177505088</v>
+        <v>0.1043114573798067</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3909971248930446</v>
+        <v>0.1080174733780848</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9432191235659257</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.533391573511306</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7300911358260395</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.068431143009484</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>5436389172.584585</v>
+        <v>11604870291.4043</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2707858347271579</v>
+        <v>0.08464301843404193</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6206608188701518</v>
+        <v>0.0451994244895419</v>
       </c>
       <c r="I31" t="n">
-        <v>5.078065737177089</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.988238060267926</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3968485445775162</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.948732831282398</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>10919299873.77792</v>
+        <v>4797933766.929399</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074690441296572</v>
+        <v>0.216738679714105</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.03366300748899779</v>
+        <v>0.4670931869348944</v>
       </c>
       <c r="I32" t="n">
-        <v>4.047995463087786</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.778978882474601</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.6352164199639585</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-15.48330728175377</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>5722862469.035551</v>
+        <v>5102594441.143708</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1917789246095514</v>
+        <v>0.2664259183599327</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3366919559421516</v>
+        <v>0.625786787123353</v>
       </c>
       <c r="I33" t="n">
-        <v>3.785960042486121</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.642567656867533</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7524946185349188</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.407324713830843</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>9834589902.063618</v>
+        <v>10586473937.42689</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1430270549161228</v>
+        <v>0.1049094690606628</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1614666119583242</v>
+        <v>0.1099274331419241</v>
       </c>
       <c r="I34" t="n">
-        <v>4.852173133210136</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.361994980058714</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.4156566246214673</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-11.67512747248806</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>11390857374.96188</v>
+        <v>9100991225.852066</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1089988943878033</v>
+        <v>0.1758541734941801</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03916163840127097</v>
+        <v>0.3365141960150173</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8717933284147563</v>
+        <v>3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9714374183758755</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3451585705459031</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.643228056641586</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.9475306172492457</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.30738428834333</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>8245801421.386985</v>
+        <v>11194985389.24883</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1874214549954623</v>
+        <v>0.1083322155261317</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.3210302158524018</v>
+        <v>0.1208591728388973</v>
       </c>
       <c r="I36" t="n">
-        <v>5.331065453620075</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.589217694458471</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7222546382436138</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.855875070413806</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>7547722724.534977</v>
+        <v>5781894122.326051</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.159293081354426</v>
+        <v>0.171246549841987</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2199304225942043</v>
+        <v>0.3217981360042762</v>
       </c>
       <c r="I37" t="n">
-        <v>4.147388208833245</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.301155688205348</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.492401762137254</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-13.14919093095043</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4535198152.645159</v>
+        <v>11840425098.6498</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2362257334610937</v>
+        <v>0.1064088982872476</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4964439289222718</v>
+        <v>0.1147163855707489</v>
       </c>
       <c r="I38" t="n">
-        <v>3.69560300089934</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.629737973649705</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7322944628450708</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.016151283251711</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5768133305.235025</v>
+        <v>8232020415.7302</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2020807232284494</v>
+        <v>0.1823258925757737</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3737189708648601</v>
+        <v>0.3571838977021459</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8038277672338963</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.324080305067792</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7791894879305229</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.259709453542666</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>7970646109.223602</v>
+        <v>7650407624.934549</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1748309310066381</v>
+        <v>0.1818067949041995</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2757769997039403</v>
+        <v>0.3555259774675615</v>
       </c>
       <c r="I40" t="n">
-        <v>4.806994612416746</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.845432601388367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7586178725489185</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.326924849590004</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9017126214.630962</v>
+        <v>7702204374.850362</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1420498814712911</v>
+        <v>0.1523572555191771</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1579544276240775</v>
+        <v>0.2614685583742294</v>
       </c>
       <c r="I41" t="n">
-        <v>4.418459333593588</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.695062842202796</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.713632136992789</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.577579897652986</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>6931677873.330678</v>
+        <v>6601333387.778526</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1757173908335042</v>
+        <v>0.1714163508382958</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2789631385959917</v>
+        <v>0.3223404549608982</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8602688164016797</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.64644491867992</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7041585990513123</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.436727062346325</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8758419945.200378</v>
+        <v>5973849641.362978</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1456476097265756</v>
+        <v>0.1657439472772024</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1708854839108793</v>
+        <v>0.3042236473586843</v>
       </c>
       <c r="I43" t="n">
-        <v>4.400387925276232</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.425685345786409</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5293775339087694</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6.161865332388979</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>10512575467.68307</v>
+        <v>5132783370.373891</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1432711950206765</v>
+        <v>0.3005816919734166</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1623441072024999</v>
+        <v>0.7348752136423193</v>
       </c>
       <c r="I44" t="n">
-        <v>5.195529891239904</v>
+        <v>5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9674748503718222</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2540357665990025</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.583306074697173</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8790809615576722</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.99831315645627</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6356996436.264317</v>
+        <v>13971863437.3746</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2464049234107312</v>
+        <v>0.0704910010332213</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5330302603105502</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.4033510868895</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.956333565743686</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3991257262045907</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.026180958348128</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>7711474735.996049</v>
+        <v>8699748889.291931</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1392664745417575</v>
+        <v>0.1788462724384031</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1479502279956017</v>
+        <v>0.3460705120132442</v>
       </c>
       <c r="I46" t="n">
-        <v>3.704638705058018</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.957098690539587</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7890167741840902</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.823236793142218</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>11068664366.84912</v>
+        <v>5827493173.113961</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1124083456470534</v>
+        <v>0.1883355977255534</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05141598420287873</v>
+        <v>0.3763779960719042</v>
       </c>
       <c r="I47" t="n">
-        <v>4.291959475372094</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.692779145950838</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6962363440585649</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.231947735220461</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>10485763568.25448</v>
+        <v>14440775830.55166</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1461355808783587</v>
+        <v>0.1057494685825105</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1726393635766866</v>
+        <v>0.1126102658352195</v>
       </c>
       <c r="I48" t="n">
-        <v>5.285886932826685</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.680898541145943</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7839050086222396</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7.997201631298848</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9067734863.12649</v>
+        <v>10866722188.66597</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1271024812036261</v>
+        <v>0.1038912259280454</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1042300603324042</v>
+        <v>0.1066753170455951</v>
       </c>
       <c r="I49" t="n">
-        <v>3.975709829818361</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.783686133142314</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7035565534652809</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.287444936163304</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>8193966204.998019</v>
+        <v>6122648052.021392</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1691070325814622</v>
+        <v>0.222894110261563</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2552040026725026</v>
+        <v>0.4867527104042703</v>
       </c>
       <c r="I50" t="n">
-        <v>4.779887499940711</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.506298617515565</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7535232430122975</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.564166242730384</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>10822090617.87071</v>
+        <v>5538061640.858693</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1154535730773464</v>
+        <v>0.2431114977245435</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06236122645384394</v>
+        <v>0.5513240186585839</v>
       </c>
       <c r="I51" t="n">
-        <v>4.310030883689451</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.551486955309473</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7499086013442173</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.446685071574874</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>5677484386.1686</v>
+        <v>5387070059.595064</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2468300315213556</v>
+        <v>0.20810921476753</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5345581958622101</v>
+        <v>0.4395319680506352</v>
       </c>
       <c r="I52" t="n">
-        <v>4.83410172489278</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.7971618482819</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6481635190622511</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.166108532963123</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>5818626360.428918</v>
+        <v>6382692717.791121</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2048288335036081</v>
+        <v>0.2166856499522403</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3835963062634467</v>
+        <v>0.4669238178160461</v>
       </c>
       <c r="I53" t="n">
-        <v>4.111245392198533</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.521210639175393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7570978728557805</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.620746817940216</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10536451963.29027</v>
+        <v>13023918985.48461</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1374772717653678</v>
+        <v>0.1222818662934688</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1415194249531503</v>
+        <v>0.1654122686029807</v>
       </c>
       <c r="I54" t="n">
-        <v>4.996744399748986</v>
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9780512150258397</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2871406771244761</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.100887643154964</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.836633552551061</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13.63178340786626</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9767357300.016565</v>
+        <v>7699517257.439879</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.152056905914303</v>
+        <v>0.1718019332604021</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1939219568964511</v>
+        <v>0.323571947480931</v>
       </c>
       <c r="I55" t="n">
-        <v>5.123244257970479</v>
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9681949686031326</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3160989972604507</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.03833635945004</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.84884104974448</v>
+      </c>
+      <c r="N55" t="n">
+        <v>12.93848463543956</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>6820322292.805866</v>
+        <v>6274902338.233871</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2250571855847768</v>
+        <v>0.1995359214391225</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4563016193917047</v>
+        <v>0.4121501529038014</v>
       </c>
       <c r="I56" t="n">
-        <v>5.294922636985363</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.715087058511907</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7306434220058988</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.89778138160607</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>8443795344.924742</v>
+        <v>7353246847.855439</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.129359557566318</v>
+        <v>0.133939558997294</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1123425078044189</v>
+        <v>0.2026451935044351</v>
       </c>
       <c r="I57" t="n">
-        <v>3.767888634168765</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.507785269475914</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6072949042315512</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.638112815155111</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5601422440.963133</v>
+        <v>4856428726.766799</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2034188033502577</v>
+        <v>0.333327865202238</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3785283361486164</v>
+        <v>0.8394615876028082</v>
       </c>
       <c r="I58" t="n">
-        <v>3.930531309024971</v>
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5158109649299203</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.555005044559157</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5266693475246143</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6.978381905933129</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>4843356465.618379</v>
+        <v>6264801804.866167</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2812270394857454</v>
+        <v>0.2521216503246972</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6581888912688948</v>
+        <v>0.58010109690513</v>
       </c>
       <c r="I59" t="n">
-        <v>4.698566162512608</v>
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.965222899031805</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4715987203838578</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.76966820647954</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.940539317234798</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.04111813821642</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6538573543.270383</v>
+        <v>10396029378.99026</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2347549553189336</v>
+        <v>0.09776072026632855</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4911576166740537</v>
+        <v>0.0870953999290848</v>
       </c>
       <c r="I60" t="n">
-        <v>5.294922636985363</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.485868476174012</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.67644464767832</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.043024477392388</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>5377283802.906678</v>
+        <v>4866941977.244881</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1967970445279407</v>
+        <v>0.2061307438409025</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3547282239741528</v>
+        <v>0.4332130281624134</v>
       </c>
       <c r="I61" t="n">
-        <v>3.65042448010595</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.52421605658128</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.673123065734396</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.938245258106639</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6134454421.918098</v>
+        <v>5274331912.330478</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2455229343001725</v>
+        <v>0.2890384991577828</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5298601901930451</v>
+        <v>0.6980079842388135</v>
       </c>
       <c r="I62" t="n">
-        <v>5.195529891239904</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.157203499256029</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7834364303723041</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.511525108190053</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>3904789256.317832</v>
+        <v>4544750487.510316</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3763270418813074</v>
+        <v>0.343507623639692</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0.8719742117597566</v>
       </c>
       <c r="I63" t="n">
-        <v>5.069030033018411</v>
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9678212698397148</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4526807401189634</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.716719300099334</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.9615230001068842</v>
+      </c>
+      <c r="N63" t="n">
+        <v>13.51374070203835</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>5944516346.999582</v>
+        <v>12155707832.76829</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2300139321999069</v>
+        <v>0.1025715373512768</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.4741172977675007</v>
+        <v>0.1024604293383552</v>
       </c>
       <c r="I64" t="n">
-        <v>4.716637570829965</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.82923566991577</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.729537873093666</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.76152179195755</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11500075406.48708</v>
+        <v>13937232773.7287</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1050026845318631</v>
+        <v>0.0719817474736487</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.02479834831533034</v>
+        <v>0.004761220909977445</v>
       </c>
       <c r="I65" t="n">
-        <v>4.165459617150601</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.34959332349434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5351552499394102</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.353511675293864</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>10531735828.81112</v>
+        <v>8445307049.786543</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1168955735323428</v>
+        <v>0.1442240457119656</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.06754410512784167</v>
+        <v>0.2354923040970592</v>
       </c>
       <c r="I66" t="n">
-        <v>4.246780954578704</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.004998660531534</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7233863072287821</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.462727484044107</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>9650077552.595839</v>
+        <v>13179285316.7021</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1245896733417013</v>
+        <v>0.07651895575262894</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.09519845549878708</v>
+        <v>0.01925238476250352</v>
       </c>
       <c r="I67" t="n">
-        <v>4.147388208833245</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.999996526734326</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.5765528503727775</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-14.53105353418988</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>6066132201.19481</v>
+        <v>7776241357.572719</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1925853082743395</v>
+        <v>0.172801615614904</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3395902828357453</v>
+        <v>0.3267647832312048</v>
       </c>
       <c r="I68" t="n">
-        <v>4.029924054770429</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.97051077310122</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.664224412130671</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5838377548556921</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.012530684983172</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4623440717.824984</v>
+        <v>14708291614.7452</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3082008069242297</v>
+        <v>0.083701991519246</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.7551387663746137</v>
+        <v>0.0421939254307661</v>
       </c>
       <c r="I69" t="n">
-        <v>4.915423062320883</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.525616366514353</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7261975516324889</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.998334666135425</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6139451843.573254</v>
+        <v>7285898363.90229</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2163109612774593</v>
+        <v>0.1448845588115806</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4248656934990819</v>
+        <v>0.2376018840336036</v>
       </c>
       <c r="I70" t="n">
-        <v>1.051334035008559</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.510369942721801</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6861876634045196</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.213383325368592</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>11134047740.57761</v>
+        <v>5085875587.28631</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09810319260795039</v>
+        <v>0.2951134852279874</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.7174105800934021</v>
       </c>
       <c r="I71" t="n">
-        <v>3.767888634168765</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.322581708749876</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7791894879305229</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.261208049860581</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>5450635269.883659</v>
+        <v>6865578394.351204</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2244243229332991</v>
+        <v>0.2029713157374393</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4540269666143436</v>
+        <v>0.4231222878850351</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7428078843748767</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.7632253348422</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7591229633360527</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.419233931878853</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>5759298942.728136</v>
+        <v>9431399013.267332</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2314985770418162</v>
+        <v>0.1585842872193202</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4794534500987506</v>
+        <v>0.281356765203899</v>
       </c>
       <c r="I73" t="n">
-        <v>4.599173416767149</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.795670789231472</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.7782383533262607</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.769096277293741</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>9694573123.714706</v>
+        <v>9261065224.478935</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1223966908968275</v>
+        <v>0.1097415141093753</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.08731637619249714</v>
+        <v>0.1253602614888338</v>
       </c>
       <c r="I74" t="n">
-        <v>4.093173983881177</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.467305523802303</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.540790974456434</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.348513965326378</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8425816436.575188</v>
+        <v>5208716682.64337</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1765779650197016</v>
+        <v>0.1991428029588263</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.282056238588839</v>
+        <v>0.4108945913423405</v>
       </c>
       <c r="I75" t="n">
-        <v>5.132279962129157</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.617168404290859</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6816813403091608</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.016458401892357</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>9466456338.790762</v>
+        <v>7146754932.385821</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1228558098593166</v>
+        <v>0.2210083016618444</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.08896655450642746</v>
+        <v>0.4807297201131641</v>
       </c>
       <c r="I76" t="n">
-        <v>1.005999953484535</v>
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.963949851113498</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2682712697518383</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.990508631941427</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9145159022735805</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.29980941353018</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7464496623.170231</v>
+        <v>7069987685.135273</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1824748363837443</v>
+        <v>0.1700568747139191</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3032509398318983</v>
+        <v>0.3179984917842885</v>
       </c>
       <c r="I77" t="n">
-        <v>1.13737109237247</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.581913904879988</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7199788053542854</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.817662202205719</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10140661679.0274</v>
+        <v>5345225253.384874</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1234700909694571</v>
+        <v>0.2244396752485407</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.09117442098424679</v>
+        <v>0.4916890135435336</v>
       </c>
       <c r="I78" t="n">
-        <v>0.8132139991220354</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.507761977276073</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7194072167531868</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.880382357787663</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>7968371957.083847</v>
+        <v>6658010481.012492</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1397074278153311</v>
+        <v>0.2096925010829493</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.149535114678484</v>
+        <v>0.4445887474646409</v>
       </c>
       <c r="I79" t="n">
-        <v>3.84017426743819</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.809648050315533</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7596272711803449</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.382897373291365</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>4829660940.766097</v>
+        <v>10262997000.73452</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2505679373442808</v>
+        <v>0.1434373584923236</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5479930823131294</v>
+        <v>0.2329797429141542</v>
       </c>
       <c r="I80" t="n">
-        <v>4.174495321309279</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.966430610996124</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7739243102461347</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.51205559392657</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>6120057556.073789</v>
+        <v>7989488559.246164</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1814723717586243</v>
+        <v>0.1268797023092109</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2996478532246997</v>
+        <v>0.1800970683684742</v>
       </c>
       <c r="I81" t="n">
-        <v>3.831138563279512</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.020326624881585</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.574627430342913</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-14.51287523173984</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>5433955303.736165</v>
+        <v>8190612874.675662</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2111340185686048</v>
+        <v>0.1586227379903421</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4062585801176259</v>
+        <v>0.2814795712090178</v>
       </c>
       <c r="I82" t="n">
-        <v>0.827660235770141</v>
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9695184385187664</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2954014802955803</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.649551091554823</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5499562743928355</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.349574396301886</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9344823490.52059</v>
+        <v>4703530312.529226</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1224927823581857</v>
+        <v>0.3163184716885473</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08766175083097343</v>
+        <v>0.7851361316653114</v>
       </c>
       <c r="I83" t="n">
-        <v>3.948602717342327</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.879336637110923</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7768065452621014</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.656794268131105</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>6542799713.796542</v>
+        <v>4695930100.495396</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2105825029451367</v>
+        <v>0.3374690244713863</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.4042763071208699</v>
+        <v>0.8526878302213468</v>
       </c>
       <c r="I84" t="n">
-        <v>4.752780387464677</v>
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.241017891678737</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.963255253868326</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.6592278848211096</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9.221302442553867</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>6836749145.912721</v>
+        <v>12452956111.49531</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1850536480128668</v>
+        <v>0.1009645572298597</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.312519777265704</v>
+        <v>0.09732797545584562</v>
       </c>
       <c r="I85" t="n">
-        <v>4.364245108641519</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.534670715891028</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7317450813821275</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7.100230911751521</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>10700362327.60825</v>
+        <v>10438960076.62943</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1258243804068399</v>
+        <v>0.1477944832315282</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0996362744289878</v>
+        <v>0.2468957469059083</v>
       </c>
       <c r="I86" t="n">
-        <v>4.64435193756054</v>
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9653301521191874</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2861438201851346</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.584213306280818</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9322193970223145</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14.06017463416547</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>5377842955.57872</v>
+        <v>5807374028.497359</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2021343611144965</v>
+        <v>0.2679210349402257</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.3739117576665207</v>
+        <v>0.630561965605687</v>
       </c>
       <c r="I87" t="n">
-        <v>3.749817225851409</v>
+        <v>5</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9694324798712702</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.288043427156024</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.617313735254194</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8833575045930053</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.04983635660591</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7903687396.701663</v>
+        <v>9502700789.757637</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1488047351785204</v>
+        <v>0.1218359291337351</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1822329131847907</v>
+        <v>0.1639880120883372</v>
       </c>
       <c r="I88" t="n">
-        <v>4.057031167246464</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.692492352886337</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.710114067281796</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.509788992749584</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6262289161.358308</v>
+        <v>9940968944.288925</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2129044947695788</v>
+        <v>0.1522997837016477</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4126220755749636</v>
+        <v>0.2612850019947307</v>
       </c>
       <c r="I89" t="n">
-        <v>1.035634698969087</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.619469254567055</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7815555465096007</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.011641675624958</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>10087923538.21742</v>
+        <v>9802957942.509871</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1184031416847023</v>
+        <v>0.1151649427265574</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.07296264906753923</v>
+        <v>0.1426818804010976</v>
       </c>
       <c r="I90" t="n">
-        <v>4.120281096357211</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.960135569747984</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7035565534652809</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.110995499557634</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>8152053512.638254</v>
+        <v>7393481750.034986</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1545532776553437</v>
+        <v>0.1608447954841266</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2028944865611814</v>
+        <v>0.2885764901186789</v>
       </c>
       <c r="I91" t="n">
-        <v>4.346173700324163</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.482262451235545</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7171101978085894</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.859941504936243</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>7835514267.693249</v>
+        <v>11936330506.71552</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1835291291510029</v>
+        <v>0.08317035201408575</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3070403086081986</v>
+        <v>0.04049594845769124</v>
       </c>
       <c r="I92" t="n">
-        <v>4.960601583114274</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.168058350918883</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.4910114487289444</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-12.98828732549777</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7286342733.114047</v>
+        <v>11291400872.04061</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1729161852727631</v>
+        <v>0.09186445966757538</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2688949666256267</v>
+        <v>0.06826362646839422</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8771445268764232</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.865844616486343</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6816813403091608</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.767782189696873</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8347146943.074659</v>
+        <v>8276892684.933247</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1424682071742658</v>
+        <v>0.1620327496140318</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.15945798565502</v>
+        <v>0.2923706377282326</v>
       </c>
       <c r="I94" t="n">
-        <v>4.102209688039855</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.925648136421858</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7488683439899503</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7.051718743377148</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>8583687234.359945</v>
+        <v>3565445658.172778</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1779077368857407</v>
+        <v>0.3702685965704952</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2868357421055651</v>
+        <v>0.957444752177717</v>
       </c>
       <c r="I95" t="n">
-        <v>5.267815524509328</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.912230658264983</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7446732174520263</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.981233690775543</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8240603421.343966</v>
+        <v>5291659983.360886</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1891289958164031</v>
+        <v>0.28611199978091</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3271675071931707</v>
+        <v>0.6886611834359835</v>
       </c>
       <c r="I96" t="n">
-        <v>5.376243974413466</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.67047107360098</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.7815555465096007</v>
+      </c>
+      <c r="N96" t="n">
+        <v>7.960639856591034</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6745074118.520418</v>
+        <v>9858187262.308607</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2326163630569822</v>
+        <v>0.1541100974829951</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4834710280960552</v>
+        <v>0.26706687314037</v>
       </c>
       <c r="I97" t="n">
-        <v>5.412386791048178</v>
+        <v>6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9701550797520585</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.4023123345441893</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.441506414173426</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8433432215462119</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13.42535801675081</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>10128823007.98336</v>
+        <v>4833403696.176407</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1055118762720664</v>
+        <v>0.2292384496822631</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.02662849961807883</v>
+        <v>0.507015580528026</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5788678561604541</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.571520294019644</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.6986963281556002</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.402406269092362</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>9940103171.457512</v>
+        <v>8198154964.657797</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.140454766506743</v>
+        <v>0.1332355432056161</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1522212204647554</v>
+        <v>0.2003966724834287</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5720496410187335</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.638626436983351</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.6949987091774101</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.261347746564851</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8254805107.565035</v>
+        <v>8431261819.442468</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1412060654141636</v>
+        <v>0.1559593104993806</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1549215601710128</v>
+        <v>0.2729729826180439</v>
       </c>
       <c r="I100" t="n">
-        <v>4.020888350611751</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.055095051345102</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.4212610513433728</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-11.48031607821256</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>7326262084.050748</v>
+        <v>6148241027.45667</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2320397619545799</v>
+        <v>0.2573275108985877</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4813985921639514</v>
+        <v>0.5967278360652303</v>
       </c>
       <c r="I101" t="n">
-        <v>5.864171998982083</v>
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9860303801021735</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3611108564653489</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.400304936094586</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8684201872707149</v>
+      </c>
+      <c r="N101" t="n">
+        <v>13.96809880931971</v>
       </c>
     </row>
   </sheetData>
